--- a/Doc/英菲尼迪CEE新增需求构建方案.xlsx
+++ b/Doc/英菲尼迪CEE新增需求构建方案.xlsx
@@ -63,19 +63,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>构建报告上传和删除的功能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>报备模块更新备注</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每期将备注信息进行更新，更新信息项目组会提前邮件告知</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建备注添加和修改的页面</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -143,10 +135,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>按要求修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>添加系统编号列</t>
     </r>
@@ -345,8 +333,88 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.构建备注添加和修改的页面
+    <r>
+      <t>构建备注添加和修改的页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=&gt;沟通后直接修改，不需要页面</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>构建报告上传和删除的功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=&gt;沟通后直接修改，不需要页面</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.构建备注添加和修改的页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=&gt;沟通后直接修改，不需要页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3.按要求修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=&gt;修改完毕</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按要求修改=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改完毕</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +426,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +565,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,16 +843,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -790,6 +868,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -802,14 +889,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1136,7 +1232,7 @@
   <dimension ref="C1:AY15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1156,135 +1252,135 @@
       </c>
     </row>
     <row r="3" spans="3:51" ht="20.25" customHeight="1">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:51" ht="30" customHeight="1">
-      <c r="C4" s="10"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="3:51" ht="75">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:51" ht="18.75">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:51" ht="18.75">
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:51" ht="75">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:51" ht="75">
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="3:51" ht="93.75">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:51" ht="93.75">
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14" t="s">
+    <row r="9" spans="3:51" ht="93.75">
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:51" ht="18.75">
+      <c r="C10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:51" ht="75">
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:51" ht="93.75">
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="3:51" ht="18.75">
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
+    </row>
+    <row r="12" spans="3:51" ht="75">
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:51" ht="75">
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="15" t="s">
+    </row>
+    <row r="13" spans="3:51" ht="18.75">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:51" ht="75">
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="3:51" ht="75">
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="3:51" ht="18.75">
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="3:51" ht="75">
-      <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="3:51" ht="26.25">
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Doc/英菲尼迪CEE新增需求构建方案.xlsx
+++ b/Doc/英菲尼迪CEE新增需求构建方案.xlsx
@@ -843,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,30 +853,36 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="3" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -889,23 +895,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="4" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="4" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="4" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1231,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:AY15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1252,26 +1249,26 @@
       </c>
     </row>
     <row r="3" spans="3:51" ht="20.25" customHeight="1">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:51" ht="30" customHeight="1">
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="3:51" ht="75">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1279,10 +1276,10 @@
       </c>
     </row>
     <row r="6" spans="3:51" ht="18.75">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1290,88 +1287,88 @@
       </c>
     </row>
     <row r="7" spans="3:51" ht="75">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:51" ht="93.75">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:51" ht="93.75">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:51" ht="18.75">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:51" ht="75">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:51" ht="75">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:51" ht="18.75">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="3:51" ht="75">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1379,8 +1376,8 @@
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
